--- a/De-Para-Descricao.xlsx
+++ b/De-Para-Descricao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MLWKT500\Desktop\Stream PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68173181-6531-4066-BF95-A5344AED964A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE00861-8428-41A7-956D-8CC552553463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A49EADB5-E283-485D-A0B7-E4E895D72AF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>CD_AREA_ARMAZ</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>PROCESSO DE CROSS-DOCKING E-COM</t>
+  </si>
+  <si>
+    <t>RECEBIMENTO</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35888D2-2D05-4C1F-B3D5-69BDC4772624}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,6 +1091,17 @@
         <v>76</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
